--- a/Tools/excel2json/excel/RevivalPointDefine.xlsx
+++ b/Tools/excel2json/excel/RevivalPointDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="RevivalPointDefine " sheetId="1" r:id="rId1"/>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1128,7 +1128,7 @@
         <v>-18000</v>
       </c>
       <c r="E4" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
         <v>-3000</v>
@@ -1148,7 +1148,7 @@
         <v>8000</v>
       </c>
       <c r="E5" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
         <v>-3000</v>
@@ -1168,7 +1168,7 @@
         <v>300000</v>
       </c>
       <c r="E6" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>200000</v>

--- a/Tools/excel2json/excel/RevivalPointDefine.xlsx
+++ b/Tools/excel2json/excel/RevivalPointDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="22125" windowHeight="9720"/>
   </bookViews>
   <sheets>
     <sheet name="RevivalPointDefine " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>RPID</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>无数怀揣梦想的旅者开始的地方</t>
-  </si>
-  <si>
-    <t>测试点</t>
   </si>
   <si>
     <t>场景1复活点</t>
@@ -1038,13 +1035,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="41.2166666666667" style="3" customWidth="1"/>
@@ -1125,52 +1122,32 @@
         <v>14</v>
       </c>
       <c r="D4" s="3">
-        <v>-18000</v>
+        <v>60000</v>
       </c>
       <c r="E4" s="3">
-        <v>100</v>
+        <v>3100</v>
       </c>
       <c r="F4" s="3">
-        <v>-3000</v>
+        <v>62000</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="3">
-        <v>8000</v>
+        <v>300000</v>
       </c>
       <c r="E5" s="3">
         <v>100</v>
       </c>
       <c r="F5" s="3">
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="3">
-        <v>1000</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3">
-        <v>300000</v>
-      </c>
-      <c r="E6" s="3">
-        <v>100</v>
-      </c>
-      <c r="F6" s="3">
         <v>200000</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/RevivalPointDefine.xlsx
+++ b/Tools/excel2json/excel/RevivalPointDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22125" windowHeight="9720"/>
+    <workbookView windowWidth="20460" windowHeight="15615"/>
   </bookViews>
   <sheets>
     <sheet name="RevivalPointDefine " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>RPID</t>
   </si>
@@ -74,7 +74,10 @@
     <t>无数怀揣梦想的旅者开始的地方</t>
   </si>
   <si>
-    <t>场景1复活点</t>
+    <t>场景1复活点0</t>
+  </si>
+  <si>
+    <t>场景1复活点1</t>
   </si>
 </sst>
 </file>
@@ -1035,13 +1038,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="41.2166666666667" style="3" customWidth="1"/>
@@ -1151,6 +1154,26 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E6" s="3">
+        <v>100</v>
+      </c>
+      <c r="F6" s="3">
+        <v>168000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Tools/excel2json/excel/RevivalPointDefine.xlsx
+++ b/Tools/excel2json/excel/RevivalPointDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20460" windowHeight="15615"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="RevivalPointDefine " sheetId="1" r:id="rId1"/>
@@ -1040,8 +1040,8 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/Tools/excel2json/excel/RevivalPointDefine.xlsx
+++ b/Tools/excel2json/excel/RevivalPointDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="RevivalPointDefine " sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>RPID</t>
   </si>
@@ -74,10 +74,16 @@
     <t>无数怀揣梦想的旅者开始的地方</t>
   </si>
   <si>
-    <t>场景1复活点0</t>
-  </si>
-  <si>
     <t>场景1复活点1</t>
+  </si>
+  <si>
+    <t>场景1复活点2</t>
+  </si>
+  <si>
+    <t>场景2复活点1</t>
+  </si>
+  <si>
+    <t>场景2复活点2</t>
   </si>
 </sst>
 </file>
@@ -1038,13 +1044,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="41.2166666666667" style="3" customWidth="1"/>
@@ -1136,7 +1142,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="3">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1156,7 +1162,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="3">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -1171,6 +1177,46 @@
         <v>100</v>
       </c>
       <c r="F6" s="3">
+        <v>168000</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3">
+        <v>2001</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E7" s="3">
+        <v>100</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3">
+        <v>2002</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>168000</v>
       </c>
     </row>

--- a/Tools/excel2json/excel/RevivalPointDefine.xlsx
+++ b/Tools/excel2json/excel/RevivalPointDefine.xlsx
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
@@ -1191,13 +1191,13 @@
         <v>17</v>
       </c>
       <c r="D7" s="3">
-        <v>300000</v>
+        <v>14276</v>
       </c>
       <c r="E7" s="3">
         <v>100</v>
       </c>
       <c r="F7" s="3">
-        <v>200000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
